--- a/Lab2/ECE358Lab2/ECE358Lab2/Plot.xlsx
+++ b/Lab2/ECE358Lab2/ECE358Lab2/Plot.xlsx
@@ -4012,7 +4012,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
